--- a/working/KreutzPFAS/KreutzPFAS-PPB-UC-Level2-ignoredbayes.xlsx
+++ b/working/KreutzPFAS/KreutzPFAS-PPB-UC-Level2-ignoredbayes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwambaug\git\invitrotkstats\working\KreutzPFAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D338688-C4D3-4669-B361-8DEB1B64C36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1936D6B-9EDB-4548-8775-010312D845C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="132">
   <si>
     <t>Lab.Sample.Name</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Verified</t>
   </si>
   <si>
-    <t>UCG8 S2 T1b</t>
-  </si>
-  <si>
-    <t>1-Iodopentadecafluoroheptane</t>
-  </si>
-  <si>
-    <t>DTXSID5059828</t>
+    <t>UCG4 4/16 S1 T1a</t>
+  </si>
+  <si>
+    <t>1H,1H,2H,2H-Perfluorohexyl iodide</t>
+  </si>
+  <si>
+    <t>DTXSID1047578</t>
   </si>
   <si>
     <t>T1</t>
@@ -106,7 +106,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>MFBET</t>
+    <t>MFHET</t>
   </si>
   <si>
     <t>GCMS</t>
@@ -115,208 +115,277 @@
     <t>Agilent 8890 GC w 7010 triple quadrupole</t>
   </si>
   <si>
-    <t>Analyte RT: 6.36257 ISTD RT: 8.17178</t>
-  </si>
-  <si>
-    <t>7010_3_111621030.D</t>
-  </si>
-  <si>
-    <t>UC_513_268_275_812_121921.xlsx</t>
-  </si>
-  <si>
-    <t>Data</t>
+    <t>Analyte RT: 31971 ISTD RT: 47005</t>
+  </si>
+  <si>
+    <t>UC_763_945_274_964_464_477_479_final-ak.xlsx</t>
+  </si>
+  <si>
+    <t>G4A_raw</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>UCG8 S2 AFa</t>
+    <t>UCG4 4/16 S1 T1b</t>
+  </si>
+  <si>
+    <t>Analyte RT: 40183 ISTD RT: 46887</t>
+  </si>
+  <si>
+    <t>UCG4 4/16 S1 T1c</t>
+  </si>
+  <si>
+    <t>Analyte RT: 49108 ISTD RT: 44567</t>
+  </si>
+  <si>
+    <t>UCG4 4/16 S1 T5a</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>Analyte RT: 34836 ISTD RT: 45485</t>
+  </si>
+  <si>
+    <t>UCCCa15</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Analyte RT: 212230 ISTD RT: 41563</t>
+  </si>
+  <si>
+    <t>UCCCa14</t>
+  </si>
+  <si>
+    <t>Analyte RT: 160300 ISTD RT: 46046</t>
+  </si>
+  <si>
+    <t>UCCCa13</t>
+  </si>
+  <si>
+    <t>Analyte RT: 109330 ISTD RT: 44911</t>
+  </si>
+  <si>
+    <t>UCCCa12</t>
+  </si>
+  <si>
+    <t>Analyte RT: 72260 ISTD RT: 42258</t>
+  </si>
+  <si>
+    <t>UCCCa11</t>
+  </si>
+  <si>
+    <t>Analyte RT: 39375 ISTD RT: 51564</t>
+  </si>
+  <si>
+    <t>UCCCa10</t>
+  </si>
+  <si>
+    <t>Analyte RT: 22456 ISTD RT: 48176</t>
+  </si>
+  <si>
+    <t>UCCCa9</t>
+  </si>
+  <si>
+    <t>Analyte RT: 14204 ISTD RT: 47280</t>
+  </si>
+  <si>
+    <t>UCCCa8</t>
+  </si>
+  <si>
+    <t>Analyte RT: 7630.1 ISTD RT: 47594</t>
+  </si>
+  <si>
+    <t>UCCCa7</t>
+  </si>
+  <si>
+    <t>Analyte RT: 7416.7 ISTD RT: 46374</t>
+  </si>
+  <si>
+    <t>UCCCa6</t>
+  </si>
+  <si>
+    <t>Analyte RT: 2553.8 ISTD RT: 42200</t>
+  </si>
+  <si>
+    <t>UCCCa5</t>
+  </si>
+  <si>
+    <t>Analyte RT: 4716.2 ISTD RT: 38162</t>
+  </si>
+  <si>
+    <t>Analyte RT: 206290 ISTD RT: 37124</t>
+  </si>
+  <si>
+    <t>Analyte RT: 226430 ISTD RT: 42312</t>
+  </si>
+  <si>
+    <t>Hexafluoroamylene</t>
+  </si>
+  <si>
+    <t>DTXSID3059927</t>
+  </si>
+  <si>
+    <t>MFOET</t>
+  </si>
+  <si>
+    <t>Analyte RT: 270370 ISTD RT: 19100</t>
+  </si>
+  <si>
+    <t>Analyte RT: 269370 ISTD RT: 18624</t>
+  </si>
+  <si>
+    <t>Analyte RT: 318040 ISTD RT: 17593</t>
+  </si>
+  <si>
+    <t>Analyte RT: 271060 ISTD RT: 17751</t>
+  </si>
+  <si>
+    <t>Analyte RT: 1349600 ISTD RT: 15105</t>
+  </si>
+  <si>
+    <t>Analyte RT: 1035000 ISTD RT: 17736</t>
+  </si>
+  <si>
+    <t>Analyte RT: 712780 ISTD RT: 15058</t>
+  </si>
+  <si>
+    <t>Analyte RT: 467910 ISTD RT: 16086</t>
+  </si>
+  <si>
+    <t>Analyte RT: 276350 ISTD RT: 16547</t>
+  </si>
+  <si>
+    <t>Analyte RT: 149280 ISTD RT: 18699</t>
+  </si>
+  <si>
+    <t>Analyte RT: 95492 ISTD RT: 17052</t>
+  </si>
+  <si>
+    <t>Analyte RT: 70834 ISTD RT: 18680</t>
+  </si>
+  <si>
+    <t>Analyte RT: 43003 ISTD RT: 18802</t>
+  </si>
+  <si>
+    <t>Analyte RT: 31465 ISTD RT: 16103</t>
+  </si>
+  <si>
+    <t>Analyte RT: 21813 ISTD RT: 15462</t>
+  </si>
+  <si>
+    <t>UCCCa4</t>
+  </si>
+  <si>
+    <t>Analyte RT: 11686 ISTD RT: 19829</t>
+  </si>
+  <si>
+    <t>UCCCa3</t>
+  </si>
+  <si>
+    <t>Analyte RT: 9217.7 ISTD RT: 17204</t>
+  </si>
+  <si>
+    <t>UCCCa2</t>
+  </si>
+  <si>
+    <t>Analyte RT: 4254.6 ISTD RT: 16954</t>
+  </si>
+  <si>
+    <t>UCCCa1</t>
+  </si>
+  <si>
+    <t>Analyte RT: 2594.3 ISTD RT: 17297</t>
+  </si>
+  <si>
+    <t>Analyte RT: 1352800 ISTD RT: 15997</t>
+  </si>
+  <si>
+    <t>Analyte RT: 1451700 ISTD RT: 15533</t>
+  </si>
+  <si>
+    <t>1H,1H,10H,10H-Perfluorodecane-1,10-diol</t>
+  </si>
+  <si>
+    <t>DTXSID50369896</t>
+  </si>
+  <si>
+    <t>Analyte RT: 4192200 ISTD RT: 19100</t>
+  </si>
+  <si>
+    <t>Analyte RT: 4220900 ISTD RT: 18624</t>
+  </si>
+  <si>
+    <t>Analyte RT: 4907800 ISTD RT: 17593</t>
+  </si>
+  <si>
+    <t>Analyte RT: 4167200 ISTD RT: 17751</t>
+  </si>
+  <si>
+    <t>Analyte RT: 20340000 ISTD RT: 15105</t>
+  </si>
+  <si>
+    <t>Analyte RT: 16122000 ISTD RT: 17736</t>
+  </si>
+  <si>
+    <t>Analyte RT: 10489000 ISTD RT: 15058</t>
+  </si>
+  <si>
+    <t>Analyte RT: 6945500 ISTD RT: 16086</t>
+  </si>
+  <si>
+    <t>Analyte RT: 4174900 ISTD RT: 16547</t>
+  </si>
+  <si>
+    <t>Analyte RT: 2275300 ISTD RT: 18699</t>
+  </si>
+  <si>
+    <t>Analyte RT: 1484100 ISTD RT: 17052</t>
+  </si>
+  <si>
+    <t>Analyte RT: 1028300 ISTD RT: 18680</t>
+  </si>
+  <si>
+    <t>Analyte RT: 633660 ISTD RT: 18802</t>
+  </si>
+  <si>
+    <t>Analyte RT: 441980 ISTD RT: 16103</t>
+  </si>
+  <si>
+    <t>Analyte RT: 311810 ISTD RT: 15462</t>
+  </si>
+  <si>
+    <t>Analyte RT: 161750 ISTD RT: 19829</t>
+  </si>
+  <si>
+    <t>Analyte RT: 110960 ISTD RT: 17204</t>
+  </si>
+  <si>
+    <t>Analyte RT: 72211 ISTD RT: 16954</t>
+  </si>
+  <si>
+    <t>Analyte RT: 43227 ISTD RT: 17297</t>
+  </si>
+  <si>
+    <t>Analyte RT: 20617000 ISTD RT: 15997</t>
+  </si>
+  <si>
+    <t>Analyte RT: 22408000 ISTD RT: 15533</t>
+  </si>
+  <si>
+    <t>UCG3 AF S1A</t>
+  </si>
+  <si>
+    <t>Bis(1H,1H-perfluoropropyl)amine</t>
+  </si>
+  <si>
+    <t>DTXSID50381992</t>
   </si>
   <si>
     <t>AF</t>
-  </si>
-  <si>
-    <t>Analyte RT: 6.38213 ISTD RT: 8.1783</t>
-  </si>
-  <si>
-    <t>7010_3_111621037.D</t>
-  </si>
-  <si>
-    <t>UCG8 S2 AFb</t>
-  </si>
-  <si>
-    <t>Analyte RT: 6.40825 ISTD RT: 8.19137</t>
-  </si>
-  <si>
-    <t>7010_3_111621038.D</t>
-  </si>
-  <si>
-    <t>UCG8 S2 AFc</t>
-  </si>
-  <si>
-    <t>Analyte RT: 6.37562 ISTD RT: 8.16525</t>
-  </si>
-  <si>
-    <t>7010_3_111621039.D</t>
-  </si>
-  <si>
-    <t>UCG8 S2 T1a</t>
-  </si>
-  <si>
-    <t>(Perfluorobutyryl)-2-thenoylmethane</t>
-  </si>
-  <si>
-    <t>DTXSID7060332</t>
-  </si>
-  <si>
-    <t>MFOET</t>
-  </si>
-  <si>
-    <t>Analyte RT: 19.0338 ISTD RT: 11.8563</t>
-  </si>
-  <si>
-    <t>7010_3_111621029.D</t>
-  </si>
-  <si>
-    <t>Analyte RT: 19.4324 ISTD RT: 11.8564</t>
-  </si>
-  <si>
-    <t>UCG8 S2 T1c</t>
-  </si>
-  <si>
-    <t>Analyte RT: 19.6274 ISTD RT: 11.8564</t>
-  </si>
-  <si>
-    <t>7010_3_111621031.D</t>
-  </si>
-  <si>
-    <t>Analyte RT: 18.4661 ISTD RT: 11.8563</t>
-  </si>
-  <si>
-    <t>Analyte RT: 18.5528 ISTD RT: 11.8629</t>
-  </si>
-  <si>
-    <t>Analyte RT: 18.5788 ISTD RT: 11.8564</t>
-  </si>
-  <si>
-    <t>UCG6 7/19 S2 AFa</t>
-  </si>
-  <si>
-    <t>1-Iodo-1H,1H,2H,2H-perfluorononane</t>
-  </si>
-  <si>
-    <t>DTXSID90880156</t>
-  </si>
-  <si>
-    <t>MFHET</t>
-  </si>
-  <si>
-    <t>Analyte RT: 4.85277 ISTD RT: 6.32382</t>
-  </si>
-  <si>
-    <t>E:\Shark Tank\Group6_072821</t>
-  </si>
-  <si>
-    <t>UC_474_760_3096_final.xlsx</t>
-  </si>
-  <si>
-    <t>474Raw</t>
-  </si>
-  <si>
-    <t>UCG6 7/19 S2 AFb</t>
-  </si>
-  <si>
-    <t>Analyte RT: 4.9855 ISTD RT: 6.32382</t>
-  </si>
-  <si>
-    <t>UCG6 7/19 S2 AFc</t>
-  </si>
-  <si>
-    <t>Analyte RT: 4.93955 ISTD RT: 6.31947</t>
-  </si>
-  <si>
-    <t>UCG6 7/19 S1 AFb</t>
-  </si>
-  <si>
-    <t>Analyte RT: 4.83233 ISTD RT: 6.31947</t>
-  </si>
-  <si>
-    <t>UCG6 7/19 S1 AFc</t>
-  </si>
-  <si>
-    <t>Analyte RT: 4.82212 ISTD RT: 6.32382</t>
-  </si>
-  <si>
-    <t>UCG6 7/19 S3 AFa</t>
-  </si>
-  <si>
-    <t>(Perfluoro-5-methylhexyl)ethyl 2-methylprop-2-enoate</t>
-  </si>
-  <si>
-    <t>DTXSID60379901</t>
-  </si>
-  <si>
-    <t>Analyte RT: 7.31197 ISTD RT: 6.4995</t>
-  </si>
-  <si>
-    <t>E:\Shark Tank\RawData\Group6_072121\Group6_072121</t>
-  </si>
-  <si>
-    <t>760Raw</t>
-  </si>
-  <si>
-    <t>UCG6 7/19 S3 AFb</t>
-  </si>
-  <si>
-    <t>Analyte RT: 7.31875 ISTD RT: 6.4995</t>
-  </si>
-  <si>
-    <t>UCG6 7/19 S3 AFc</t>
-  </si>
-  <si>
-    <t>Analyte RT: 7.31535 ISTD RT: 6.49612</t>
-  </si>
-  <si>
-    <t>Analyte RT: 7.31535 ISTD RT: 6.5063</t>
-  </si>
-  <si>
-    <t>Analyte RT: 7.32215 ISTD RT: 6.4995</t>
-  </si>
-  <si>
-    <t>((2,2,3,3-Tetrafluoropropoxy)methyl)oxirane</t>
-  </si>
-  <si>
-    <t>DTXSID70880230</t>
-  </si>
-  <si>
-    <t>Analyte RT: 7.87468 ISTD RT: 7.314</t>
-  </si>
-  <si>
-    <t>3096Raw</t>
-  </si>
-  <si>
-    <t>Analyte RT: 7.87903 ISTD RT: 7.3174</t>
-  </si>
-  <si>
-    <t>UCG6 7/19 S1 AFa</t>
-  </si>
-  <si>
-    <t>Analyte RT: 7.87903 ISTD RT: 7.32078</t>
-  </si>
-  <si>
-    <t>Analyte RT: 7.87468 ISTD RT: 7.32418</t>
-  </si>
-  <si>
-    <t>Analyte RT: 7.87903 ISTD RT: 7.32418</t>
-  </si>
-  <si>
-    <t>UCG3 AF S1A</t>
-  </si>
-  <si>
-    <t>Bis(1H,1H-perfluoropropyl)amine</t>
-  </si>
-  <si>
-    <t>DTXSID50381992</t>
   </si>
   <si>
     <t>Analyte RT: 6.5366 ISTD RT: 6.3915</t>
@@ -878,7 +947,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -889,6 +965,38 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:W63" totalsRowShown="0">
+  <autoFilter ref="A1:W63"/>
+  <tableColumns count="23">
+    <tableColumn id="1" name="Lab.Sample.Name"/>
+    <tableColumn id="2" name="Date" dataDxfId="1"/>
+    <tableColumn id="3" name="Compound.Name"/>
+    <tableColumn id="4" name="DTXSID"/>
+    <tableColumn id="5" name="Lab.Compound.Name"/>
+    <tableColumn id="6" name="Sample.Type"/>
+    <tableColumn id="7" name="Dilution.Factor"/>
+    <tableColumn id="8" name="Calibration" dataDxfId="0"/>
+    <tableColumn id="9" name="Standard.Conc"/>
+    <tableColumn id="10" name="UC.Assay.T1.Conc"/>
+    <tableColumn id="11" name="ISTD.Name"/>
+    <tableColumn id="12" name="ISTD.Conc"/>
+    <tableColumn id="13" name="ISTD.Area"/>
+    <tableColumn id="14" name="Series"/>
+    <tableColumn id="15" name="Area"/>
+    <tableColumn id="16" name="Analysis.Method"/>
+    <tableColumn id="17" name="Analysis.Instrument"/>
+    <tableColumn id="18" name="Analysis.Parameters"/>
+    <tableColumn id="19" name="Note"/>
+    <tableColumn id="20" name="Level0.File"/>
+    <tableColumn id="21" name="Level0.Sheet"/>
+    <tableColumn id="22" name="Response"/>
+    <tableColumn id="23" name="Verified"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1188,13 +1296,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W31"/>
+      <selection sqref="A1:W63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" customWidth="1"/>
+    <col min="16" max="16" width="17.08984375" customWidth="1"/>
+    <col min="17" max="17" width="19.81640625" customWidth="1"/>
+    <col min="18" max="18" width="20.08984375" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
+    <col min="21" max="21" width="13.81640625" customWidth="1"/>
+    <col min="22" max="22" width="11.08984375" customWidth="1"/>
+    <col min="23" max="23" width="9.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1272,7 +1401,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>44516</v>
+        <v>44306</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1281,7 +1410,7 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>513</v>
+        <v>763</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -1290,7 +1419,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="1">
-        <v>44516</v>
+        <v>44306</v>
       </c>
       <c r="I2" t="s">
         <v>27</v>
@@ -1305,13 +1434,13 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25236.2</v>
+        <v>47005.4</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>26063.4</v>
+        <v>31971.1</v>
       </c>
       <c r="P2" t="s">
         <v>29</v>
@@ -1322,28 +1451,25 @@
       <c r="R2" t="s">
         <v>31</v>
       </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
       <c r="T2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2">
-        <v>1.0329999999999999</v>
+        <v>0.68020000000000003</v>
       </c>
       <c r="W2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1">
-        <v>44516</v>
+        <v>44306</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -1352,16 +1478,16 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>513</v>
+        <v>763</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
-        <v>44516</v>
+        <v>44306</v>
       </c>
       <c r="I3" t="s">
         <v>27</v>
@@ -1376,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>30335.1</v>
+        <v>46886.9</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>4081.16</v>
+        <v>40182.6</v>
       </c>
       <c r="P3" t="s">
         <v>29</v>
@@ -1391,30 +1517,27 @@
         <v>30</v>
       </c>
       <c r="R3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V3">
-        <v>0.13450000000000001</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="W3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1">
-        <v>44516</v>
+        <v>44306</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -1423,16 +1546,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>513</v>
+        <v>763</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1">
-        <v>44516</v>
+        <v>44306</v>
       </c>
       <c r="I4" t="s">
         <v>27</v>
@@ -1447,13 +1570,13 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22742.7</v>
+        <v>44567</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>49108.3</v>
       </c>
       <c r="P4" t="s">
         <v>29</v>
@@ -1462,30 +1585,27 @@
         <v>30</v>
       </c>
       <c r="R4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.1020000000000001</v>
       </c>
       <c r="W4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1">
-        <v>44516</v>
+        <v>44306</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -1494,16 +1614,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>513</v>
+        <v>763</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1">
-        <v>44516</v>
+        <v>44306</v>
       </c>
       <c r="I5" t="s">
         <v>27</v>
@@ -1518,13 +1638,13 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30638.799999999999</v>
+        <v>45484.6</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>34836.300000000003</v>
       </c>
       <c r="P5" t="s">
         <v>29</v>
@@ -1533,69 +1653,66 @@
         <v>30</v>
       </c>
       <c r="R5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.76590000000000003</v>
       </c>
       <c r="W5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
-        <v>44516</v>
+        <v>44306</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>812</v>
+        <v>763</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>44516</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
       </c>
       <c r="J6">
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9859.82</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
+        <v>41563.1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
       </c>
       <c r="O6">
-        <v>4784.8999999999996</v>
+        <v>212232</v>
       </c>
       <c r="P6" t="s">
         <v>29</v>
@@ -1604,69 +1721,66 @@
         <v>30</v>
       </c>
       <c r="R6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="T6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V6">
-        <v>0.48530000000000001</v>
+        <v>5.1059999999999999</v>
       </c>
       <c r="W6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1">
-        <v>44516</v>
+        <v>44306</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>812</v>
+        <v>763</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>44516</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I7">
+        <v>3.5</v>
       </c>
       <c r="J7">
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7070.04</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
+        <v>46045.8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
       </c>
       <c r="O7">
-        <v>16230</v>
+        <v>160304</v>
       </c>
       <c r="P7" t="s">
         <v>29</v>
@@ -1675,140 +1789,134 @@
         <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="T7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V7">
-        <v>2.2959999999999998</v>
+        <v>3.4809999999999999</v>
       </c>
       <c r="W7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1">
-        <v>44516</v>
+        <v>44306</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>763</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I8">
+        <v>2.5</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>44911.3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8">
+        <v>109334</v>
+      </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" t="s">
         <v>48</v>
       </c>
-      <c r="E8">
-        <v>812</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1">
-        <v>44516</v>
-      </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>8871.43</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>3865.22</v>
-      </c>
-      <c r="P8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" t="s">
-        <v>54</v>
-      </c>
-      <c r="S8" t="s">
-        <v>55</v>
-      </c>
       <c r="T8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V8">
-        <v>0.43569999999999998</v>
+        <v>2.4340000000000002</v>
       </c>
       <c r="W8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1">
-        <v>44516</v>
+        <v>44306</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>812</v>
+        <v>763</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>44516</v>
-      </c>
-      <c r="I9" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I9">
+        <v>1.5</v>
       </c>
       <c r="J9">
         <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10182</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
+        <v>42258</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>72259.7</v>
       </c>
       <c r="P9" t="s">
         <v>29</v>
@@ -1817,69 +1925,66 @@
         <v>30</v>
       </c>
       <c r="R9" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="W9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1">
-        <v>44516</v>
+        <v>44306</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>812</v>
+        <v>763</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>44516</v>
-      </c>
-      <c r="I10" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I10">
+        <v>0.8</v>
       </c>
       <c r="J10">
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7509.63</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
+        <v>51563.8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>39375.300000000003</v>
       </c>
       <c r="P10" t="s">
         <v>29</v>
@@ -1888,69 +1993,66 @@
         <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>57</v>
-      </c>
-      <c r="S10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.76359999999999995</v>
       </c>
       <c r="W10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>763</v>
+      </c>
+      <c r="F11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1">
-        <v>44516</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11">
-        <v>812</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>44516</v>
-      </c>
-      <c r="I11" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9377.39</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
+        <v>48175.9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>22456.1</v>
       </c>
       <c r="P11" t="s">
         <v>29</v>
@@ -1959,69 +2061,66 @@
         <v>30</v>
       </c>
       <c r="R11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S11" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="T11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.46610000000000001</v>
       </c>
       <c r="W11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1">
-        <v>44393</v>
+        <v>44306</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>474</v>
+        <v>763</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>44393</v>
-      </c>
-      <c r="I12" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I12">
+        <v>0.35</v>
       </c>
       <c r="J12">
         <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28442.400000000001</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
+        <v>47280.4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14203.8</v>
       </c>
       <c r="P12" t="s">
         <v>29</v>
@@ -2030,69 +2129,66 @@
         <v>30</v>
       </c>
       <c r="R12" t="s">
-        <v>63</v>
-      </c>
-      <c r="S12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U12" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>0.3004</v>
       </c>
       <c r="W12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1">
-        <v>44393</v>
+        <v>44306</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>474</v>
+        <v>763</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>44393</v>
-      </c>
-      <c r="I13" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I13">
+        <v>0.2</v>
       </c>
       <c r="J13">
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25371.3</v>
-      </c>
-      <c r="N13">
-        <v>2</v>
+        <v>47593.7</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>7630.06</v>
       </c>
       <c r="P13" t="s">
         <v>29</v>
@@ -2101,211 +2197,202 @@
         <v>30</v>
       </c>
       <c r="R13" t="s">
-        <v>68</v>
-      </c>
-      <c r="S13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U13" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>0.1603</v>
       </c>
       <c r="W13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1">
-        <v>44393</v>
+        <v>44306</v>
       </c>
       <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>763</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I14">
+        <v>0.125</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>46374.3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14">
+        <v>7416.68</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" t="s">
         <v>60</v>
       </c>
-      <c r="D14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14">
-        <v>474</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>44393</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14">
-        <v>10</v>
-      </c>
-      <c r="K14" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>25960.799999999999</v>
-      </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>30</v>
-      </c>
-      <c r="R14" t="s">
-        <v>70</v>
-      </c>
-      <c r="S14" t="s">
-        <v>64</v>
-      </c>
       <c r="T14" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U14" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>0.15989999999999999</v>
       </c>
       <c r="W14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1">
-        <v>44393</v>
+        <v>44306</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>474</v>
+        <v>763</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>44393</v>
-      </c>
-      <c r="I15" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I15">
+        <v>0.08</v>
       </c>
       <c r="J15">
         <v>10</v>
       </c>
       <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>42199.6</v>
+      </c>
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15">
+        <v>2553.83</v>
+      </c>
+      <c r="P15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" t="s">
         <v>62</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>28201.599999999999</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>30</v>
-      </c>
-      <c r="R15" t="s">
-        <v>72</v>
-      </c>
-      <c r="S15" t="s">
-        <v>64</v>
-      </c>
       <c r="T15" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U15" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>6.0519999999999997E-2</v>
       </c>
       <c r="W15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1">
-        <v>44393</v>
+        <v>44306</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>474</v>
+        <v>763</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>44393</v>
-      </c>
-      <c r="I16" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I16">
+        <v>0.05</v>
       </c>
       <c r="J16">
         <v>10</v>
       </c>
       <c r="K16" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30823.4</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
+        <v>38161.800000000003</v>
+      </c>
+      <c r="N16" t="s">
+        <v>27</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>4716.22</v>
       </c>
       <c r="P16" t="s">
         <v>29</v>
@@ -2314,69 +2401,66 @@
         <v>30</v>
       </c>
       <c r="R16" t="s">
-        <v>74</v>
-      </c>
-      <c r="S16" t="s">
         <v>64</v>
       </c>
       <c r="T16" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U16" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>0.1236</v>
       </c>
       <c r="W16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1">
-        <v>44393</v>
+        <v>44306</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>44393</v>
-      </c>
-      <c r="I17" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
       </c>
       <c r="J17">
         <v>10</v>
       </c>
       <c r="K17" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>61510.8</v>
-      </c>
-      <c r="N17">
-        <v>3</v>
+        <v>37123.599999999999</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>206287</v>
       </c>
       <c r="P17" t="s">
         <v>29</v>
@@ -2385,69 +2469,66 @@
         <v>30</v>
       </c>
       <c r="R17" t="s">
-        <v>78</v>
-      </c>
-      <c r="S17" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="T17" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U17" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>5.5570000000000004</v>
       </c>
       <c r="W17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1">
-        <v>44393</v>
+        <v>44306</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>44393</v>
-      </c>
-      <c r="I18" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
       </c>
       <c r="J18">
         <v>10</v>
       </c>
       <c r="K18" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>60135.3</v>
-      </c>
-      <c r="N18">
-        <v>3</v>
+        <v>42312.4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>226427</v>
       </c>
       <c r="P18" t="s">
         <v>29</v>
@@ -2456,48 +2537,45 @@
         <v>30</v>
       </c>
       <c r="R18" t="s">
-        <v>82</v>
-      </c>
-      <c r="S18" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="T18" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U18" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>5.351</v>
       </c>
       <c r="W18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>44393</v>
+        <v>44306</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E19">
-        <v>760</v>
+        <v>945</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H19" s="1">
-        <v>44393</v>
+        <v>44306</v>
       </c>
       <c r="I19" t="s">
         <v>27</v>
@@ -2506,19 +2584,19 @@
         <v>10</v>
       </c>
       <c r="K19" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>65240.4</v>
+        <v>19100.400000000001</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>270371</v>
       </c>
       <c r="P19" t="s">
         <v>29</v>
@@ -2527,48 +2605,45 @@
         <v>30</v>
       </c>
       <c r="R19" t="s">
-        <v>84</v>
-      </c>
-      <c r="S19" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="T19" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U19" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>14.16</v>
       </c>
       <c r="W19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1">
-        <v>44393</v>
+        <v>44306</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E20">
-        <v>760</v>
+        <v>945</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H20" s="1">
-        <v>44393</v>
+        <v>44306</v>
       </c>
       <c r="I20" t="s">
         <v>27</v>
@@ -2577,19 +2652,19 @@
         <v>10</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>62722.400000000001</v>
+        <v>18623.5</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>269372</v>
       </c>
       <c r="P20" t="s">
         <v>29</v>
@@ -2598,48 +2673,45 @@
         <v>30</v>
       </c>
       <c r="R20" t="s">
-        <v>85</v>
-      </c>
-      <c r="S20" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="T20" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U20" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>14.46</v>
       </c>
       <c r="W20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="1">
-        <v>44393</v>
-      </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E21">
-        <v>760</v>
+        <v>945</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H21" s="1">
-        <v>44393</v>
+        <v>44306</v>
       </c>
       <c r="I21" t="s">
         <v>27</v>
@@ -2648,19 +2720,19 @@
         <v>10</v>
       </c>
       <c r="K21" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65849.600000000006</v>
+        <v>17592.7</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>318039</v>
       </c>
       <c r="P21" t="s">
         <v>29</v>
@@ -2669,69 +2741,66 @@
         <v>30</v>
       </c>
       <c r="R21" t="s">
-        <v>82</v>
-      </c>
-      <c r="S21" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="T21" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U21" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="W21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22">
+        <v>945</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="1">
-        <v>44393</v>
-      </c>
-      <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22">
-        <v>760</v>
-      </c>
-      <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22" s="1">
-        <v>44393</v>
-      </c>
-      <c r="I22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22">
-        <v>10</v>
-      </c>
-      <c r="K22" t="s">
-        <v>62</v>
-      </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>67464.7</v>
+        <v>17750.599999999999</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>271056</v>
       </c>
       <c r="P22" t="s">
         <v>29</v>
@@ -2740,69 +2809,66 @@
         <v>30</v>
       </c>
       <c r="R22" t="s">
-        <v>86</v>
-      </c>
-      <c r="S22" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="T22" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U22" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>15.27</v>
       </c>
       <c r="W22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1">
-        <v>44393</v>
+        <v>44306</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E23">
-        <v>3096</v>
+        <v>945</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>44393</v>
-      </c>
-      <c r="I23" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
       </c>
       <c r="J23">
         <v>10</v>
       </c>
       <c r="K23" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>28473.4</v>
-      </c>
-      <c r="N23">
-        <v>3</v>
+        <v>15104.8</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
       </c>
       <c r="O23">
-        <v>11280.7</v>
+        <v>1349560</v>
       </c>
       <c r="P23" t="s">
         <v>29</v>
@@ -2811,69 +2877,66 @@
         <v>30</v>
       </c>
       <c r="R23" t="s">
-        <v>89</v>
-      </c>
-      <c r="S23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U23" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="V23">
-        <v>0.3962</v>
+        <v>89.35</v>
       </c>
       <c r="W23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1">
-        <v>44393</v>
+        <v>44306</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E24">
-        <v>3096</v>
+        <v>945</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>44393</v>
-      </c>
-      <c r="I24" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I24">
+        <v>3.5</v>
       </c>
       <c r="J24">
         <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>28290.799999999999</v>
-      </c>
-      <c r="N24">
-        <v>3</v>
+        <v>17735.900000000001</v>
+      </c>
+      <c r="N24" t="s">
+        <v>27</v>
       </c>
       <c r="O24">
-        <v>13085.9</v>
+        <v>1034970</v>
       </c>
       <c r="P24" t="s">
         <v>29</v>
@@ -2882,69 +2945,66 @@
         <v>30</v>
       </c>
       <c r="R24" t="s">
-        <v>89</v>
-      </c>
-      <c r="S24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="T24" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U24" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="V24">
-        <v>0.46250000000000002</v>
+        <v>58.35</v>
       </c>
       <c r="W24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1">
-        <v>44393</v>
+        <v>44306</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E25">
-        <v>3096</v>
+        <v>945</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>44393</v>
-      </c>
-      <c r="I25" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I25">
+        <v>2.5</v>
       </c>
       <c r="J25">
         <v>10</v>
       </c>
       <c r="K25" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>28868.6</v>
-      </c>
-      <c r="N25">
-        <v>3</v>
+        <v>15058</v>
+      </c>
+      <c r="N25" t="s">
+        <v>27</v>
       </c>
       <c r="O25">
-        <v>11118.3</v>
+        <v>712784</v>
       </c>
       <c r="P25" t="s">
         <v>29</v>
@@ -2953,69 +3013,66 @@
         <v>30</v>
       </c>
       <c r="R25" t="s">
-        <v>91</v>
-      </c>
-      <c r="S25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U25" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="V25">
-        <v>0.3851</v>
+        <v>47.34</v>
       </c>
       <c r="W25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1">
-        <v>44393</v>
+        <v>44306</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E26">
-        <v>3096</v>
+        <v>945</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>44393</v>
-      </c>
-      <c r="I26" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I26">
+        <v>1.5</v>
       </c>
       <c r="J26">
         <v>10</v>
       </c>
       <c r="K26" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>30277.8</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
+        <v>16086</v>
+      </c>
+      <c r="N26" t="s">
+        <v>27</v>
       </c>
       <c r="O26">
-        <v>9055.02</v>
+        <v>467907</v>
       </c>
       <c r="P26" t="s">
         <v>29</v>
@@ -3024,69 +3081,66 @@
         <v>30</v>
       </c>
       <c r="R26" t="s">
-        <v>93</v>
-      </c>
-      <c r="S26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U26" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="V26">
-        <v>0.29909999999999998</v>
+        <v>29.09</v>
       </c>
       <c r="W26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1">
-        <v>44393</v>
+        <v>44306</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E27">
-        <v>3096</v>
+        <v>945</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>44393</v>
-      </c>
-      <c r="I27" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I27">
+        <v>0.8</v>
       </c>
       <c r="J27">
         <v>10</v>
       </c>
       <c r="K27" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>30871</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
+        <v>16547.3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>27</v>
       </c>
       <c r="O27">
-        <v>8093.1</v>
+        <v>276353</v>
       </c>
       <c r="P27" t="s">
         <v>29</v>
@@ -3095,69 +3149,66 @@
         <v>30</v>
       </c>
       <c r="R27" t="s">
-        <v>94</v>
-      </c>
-      <c r="S27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U27" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="V27">
-        <v>0.26219999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="W27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1">
-        <v>44393</v>
+        <v>44306</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E28">
-        <v>3096</v>
+        <v>945</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>44393</v>
-      </c>
-      <c r="I28" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I28">
+        <v>0.5</v>
       </c>
       <c r="J28">
         <v>10</v>
       </c>
       <c r="K28" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>31272.400000000001</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
+        <v>18699</v>
+      </c>
+      <c r="N28" t="s">
+        <v>27</v>
       </c>
       <c r="O28">
-        <v>14613.4</v>
+        <v>149282</v>
       </c>
       <c r="P28" t="s">
         <v>29</v>
@@ -3166,69 +3217,66 @@
         <v>30</v>
       </c>
       <c r="R28" t="s">
-        <v>95</v>
-      </c>
-      <c r="S28" t="s">
         <v>79</v>
       </c>
       <c r="T28" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="U28" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="V28">
-        <v>0.46729999999999999</v>
+        <v>7.9829999999999997</v>
       </c>
       <c r="W28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1">
-        <v>44097</v>
+        <v>44306</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="E29">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>44097</v>
-      </c>
-      <c r="I29" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I29">
+        <v>0.35</v>
       </c>
       <c r="J29">
         <v>10</v>
       </c>
       <c r="K29" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>41455.800000000003</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
+        <v>17052.2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>27</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>95491.5</v>
       </c>
       <c r="P29" t="s">
         <v>29</v>
@@ -3237,69 +3285,66 @@
         <v>30</v>
       </c>
       <c r="R29" t="s">
-        <v>99</v>
-      </c>
-      <c r="S29" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="U29" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="W29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1">
-        <v>44097</v>
+        <v>44306</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="E30">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>44097</v>
-      </c>
-      <c r="I30" t="s">
-        <v>27</v>
+        <v>44306</v>
+      </c>
+      <c r="I30">
+        <v>0.2</v>
       </c>
       <c r="J30">
         <v>10</v>
       </c>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>34916.400000000001</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
+        <v>18679.5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>27</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>70833.8</v>
       </c>
       <c r="P30" t="s">
         <v>29</v>
@@ -3308,96 +3353,2278 @@
         <v>30</v>
       </c>
       <c r="R30" t="s">
-        <v>104</v>
-      </c>
-      <c r="S30" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="U30" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>3.7919999999999998</v>
       </c>
       <c r="W30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31">
+        <v>945</v>
+      </c>
+      <c r="F31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I31">
+        <v>0.125</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31" t="s">
+        <v>69</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>18802.2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31">
+        <v>43002.9</v>
+      </c>
+      <c r="P31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>30</v>
+      </c>
+      <c r="R31" t="s">
+        <v>82</v>
+      </c>
+      <c r="T31" t="s">
+        <v>32</v>
+      </c>
+      <c r="U31" t="s">
+        <v>33</v>
+      </c>
+      <c r="V31">
+        <v>2.2869999999999999</v>
+      </c>
+      <c r="W31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32">
+        <v>945</v>
+      </c>
+      <c r="F32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I32">
+        <v>0.08</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>16103.5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32">
+        <v>31465.1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>30</v>
+      </c>
+      <c r="R32" t="s">
+        <v>83</v>
+      </c>
+      <c r="T32" t="s">
+        <v>32</v>
+      </c>
+      <c r="U32" t="s">
+        <v>33</v>
+      </c>
+      <c r="V32">
+        <v>1.954</v>
+      </c>
+      <c r="W32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33">
+        <v>945</v>
+      </c>
+      <c r="F33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I33">
+        <v>0.05</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>15461.9</v>
+      </c>
+      <c r="N33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33">
+        <v>21812.9</v>
+      </c>
+      <c r="P33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>30</v>
+      </c>
+      <c r="R33" t="s">
+        <v>84</v>
+      </c>
+      <c r="T33" t="s">
+        <v>32</v>
+      </c>
+      <c r="U33" t="s">
+        <v>33</v>
+      </c>
+      <c r="V33">
+        <v>1.411</v>
+      </c>
+      <c r="W33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34">
+        <v>945</v>
+      </c>
+      <c r="F34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I34">
+        <v>0.03</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>19828.900000000001</v>
+      </c>
+      <c r="N34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34">
+        <v>11686.5</v>
+      </c>
+      <c r="P34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>30</v>
+      </c>
+      <c r="R34" t="s">
+        <v>86</v>
+      </c>
+      <c r="T34" t="s">
+        <v>32</v>
+      </c>
+      <c r="U34" t="s">
+        <v>33</v>
+      </c>
+      <c r="V34">
+        <v>0.58940000000000003</v>
+      </c>
+      <c r="W34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35">
+        <v>945</v>
+      </c>
+      <c r="F35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I35">
+        <v>0.02</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>17204.400000000001</v>
+      </c>
+      <c r="N35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35">
+        <v>9217.7099999999991</v>
+      </c>
+      <c r="P35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>30</v>
+      </c>
+      <c r="R35" t="s">
+        <v>88</v>
+      </c>
+      <c r="T35" t="s">
+        <v>32</v>
+      </c>
+      <c r="U35" t="s">
+        <v>33</v>
+      </c>
+      <c r="V35">
+        <v>0.53580000000000005</v>
+      </c>
+      <c r="W35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36">
+        <v>945</v>
+      </c>
+      <c r="F36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I36">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>16953.8</v>
+      </c>
+      <c r="N36" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36">
+        <v>4254.6000000000004</v>
+      </c>
+      <c r="P36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36" t="s">
+        <v>90</v>
+      </c>
+      <c r="T36" t="s">
+        <v>32</v>
+      </c>
+      <c r="U36" t="s">
+        <v>33</v>
+      </c>
+      <c r="V36">
+        <v>0.251</v>
+      </c>
+      <c r="W36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37">
+        <v>945</v>
+      </c>
+      <c r="F37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I37">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37" t="s">
+        <v>69</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>17296.599999999999</v>
+      </c>
+      <c r="N37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37">
+        <v>2594.35</v>
+      </c>
+      <c r="P37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>30</v>
+      </c>
+      <c r="R37" t="s">
+        <v>92</v>
+      </c>
+      <c r="T37" t="s">
+        <v>32</v>
+      </c>
+      <c r="U37" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37">
+        <v>0.15</v>
+      </c>
+      <c r="W37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38">
+        <v>945</v>
+      </c>
+      <c r="F38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
+      </c>
+      <c r="K38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>15997.3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38">
+        <v>1352850</v>
+      </c>
+      <c r="P38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>30</v>
+      </c>
+      <c r="R38" t="s">
+        <v>93</v>
+      </c>
+      <c r="T38" t="s">
+        <v>32</v>
+      </c>
+      <c r="U38" t="s">
+        <v>33</v>
+      </c>
+      <c r="V38">
+        <v>84.57</v>
+      </c>
+      <c r="W38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39">
+        <v>945</v>
+      </c>
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>15532.5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39">
+        <v>1451730</v>
+      </c>
+      <c r="P39" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>30</v>
+      </c>
+      <c r="R39" t="s">
+        <v>94</v>
+      </c>
+      <c r="T39" t="s">
+        <v>32</v>
+      </c>
+      <c r="U39" t="s">
+        <v>33</v>
+      </c>
+      <c r="V39">
+        <v>93.46</v>
+      </c>
+      <c r="W39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40">
+        <v>274</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40">
+        <v>10</v>
+      </c>
+      <c r="K40" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>19100.400000000001</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>4192170</v>
+      </c>
+      <c r="P40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>30</v>
+      </c>
+      <c r="R40" t="s">
+        <v>97</v>
+      </c>
+      <c r="T40" t="s">
+        <v>32</v>
+      </c>
+      <c r="U40" t="s">
+        <v>33</v>
+      </c>
+      <c r="V40">
+        <v>219.5</v>
+      </c>
+      <c r="W40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41">
+        <v>274</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I41" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41">
+        <v>10</v>
+      </c>
+      <c r="K41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>18623.5</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>4220940</v>
+      </c>
+      <c r="P41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>30</v>
+      </c>
+      <c r="R41" t="s">
+        <v>98</v>
+      </c>
+      <c r="T41" t="s">
+        <v>32</v>
+      </c>
+      <c r="U41" t="s">
+        <v>33</v>
+      </c>
+      <c r="V41">
+        <v>226.6</v>
+      </c>
+      <c r="W41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42">
+        <v>274</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="K42" t="s">
+        <v>69</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>17592.7</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>4907830</v>
+      </c>
+      <c r="P42" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>30</v>
+      </c>
+      <c r="R42" t="s">
+        <v>99</v>
+      </c>
+      <c r="T42" t="s">
+        <v>32</v>
+      </c>
+      <c r="U42" t="s">
+        <v>33</v>
+      </c>
+      <c r="V42">
+        <v>279</v>
+      </c>
+      <c r="W42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43">
+        <v>274</v>
+      </c>
+      <c r="F43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>17750.599999999999</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>4167190</v>
+      </c>
+      <c r="P43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>30</v>
+      </c>
+      <c r="R43" t="s">
+        <v>100</v>
+      </c>
+      <c r="T43" t="s">
+        <v>32</v>
+      </c>
+      <c r="U43" t="s">
+        <v>33</v>
+      </c>
+      <c r="V43">
+        <v>234.8</v>
+      </c>
+      <c r="W43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44">
+        <v>274</v>
+      </c>
+      <c r="F44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44" t="s">
+        <v>69</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>15104.8</v>
+      </c>
+      <c r="N44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44">
+        <v>20340000</v>
+      </c>
+      <c r="P44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>30</v>
+      </c>
+      <c r="R44" t="s">
+        <v>101</v>
+      </c>
+      <c r="T44" t="s">
+        <v>32</v>
+      </c>
+      <c r="U44" t="s">
+        <v>33</v>
+      </c>
+      <c r="V44">
+        <v>1347</v>
+      </c>
+      <c r="W44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45">
+        <v>274</v>
+      </c>
+      <c r="F45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I45">
+        <v>3.5</v>
+      </c>
+      <c r="J45">
+        <v>10</v>
+      </c>
+      <c r="K45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>17735.900000000001</v>
+      </c>
+      <c r="N45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O45">
+        <v>16121700</v>
+      </c>
+      <c r="P45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>30</v>
+      </c>
+      <c r="R45" t="s">
+        <v>102</v>
+      </c>
+      <c r="T45" t="s">
+        <v>32</v>
+      </c>
+      <c r="U45" t="s">
+        <v>33</v>
+      </c>
+      <c r="V45">
+        <v>909</v>
+      </c>
+      <c r="W45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46">
+        <v>274</v>
+      </c>
+      <c r="F46" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I46">
+        <v>2.5</v>
+      </c>
+      <c r="J46">
+        <v>10</v>
+      </c>
+      <c r="K46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>15058</v>
+      </c>
+      <c r="N46" t="s">
+        <v>27</v>
+      </c>
+      <c r="O46">
+        <v>10489300</v>
+      </c>
+      <c r="P46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>30</v>
+      </c>
+      <c r="R46" t="s">
+        <v>103</v>
+      </c>
+      <c r="T46" t="s">
+        <v>32</v>
+      </c>
+      <c r="U46" t="s">
+        <v>33</v>
+      </c>
+      <c r="V46">
+        <v>696.6</v>
+      </c>
+      <c r="W46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47">
+        <v>274</v>
+      </c>
+      <c r="F47" t="s">
+        <v>43</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I47">
+        <v>1.5</v>
+      </c>
+      <c r="J47">
+        <v>10</v>
+      </c>
+      <c r="K47" t="s">
+        <v>69</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>16086</v>
+      </c>
+      <c r="N47" t="s">
+        <v>27</v>
+      </c>
+      <c r="O47">
+        <v>6945510</v>
+      </c>
+      <c r="P47" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>30</v>
+      </c>
+      <c r="R47" t="s">
+        <v>104</v>
+      </c>
+      <c r="T47" t="s">
+        <v>32</v>
+      </c>
+      <c r="U47" t="s">
+        <v>33</v>
+      </c>
+      <c r="V47">
+        <v>431.8</v>
+      </c>
+      <c r="W47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48">
+        <v>274</v>
+      </c>
+      <c r="F48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I48">
+        <v>0.8</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+      <c r="K48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>16547.3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O48">
+        <v>4174890</v>
+      </c>
+      <c r="P48" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>30</v>
+      </c>
+      <c r="R48" t="s">
+        <v>105</v>
+      </c>
+      <c r="T48" t="s">
+        <v>32</v>
+      </c>
+      <c r="U48" t="s">
+        <v>33</v>
+      </c>
+      <c r="V48">
+        <v>252.3</v>
+      </c>
+      <c r="W48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49">
+        <v>274</v>
+      </c>
+      <c r="F49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I49">
+        <v>0.5</v>
+      </c>
+      <c r="J49">
+        <v>10</v>
+      </c>
+      <c r="K49" t="s">
+        <v>69</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>18699</v>
+      </c>
+      <c r="N49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O49">
+        <v>2275300</v>
+      </c>
+      <c r="P49" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>30</v>
+      </c>
+      <c r="R49" t="s">
         <v>106</v>
       </c>
-      <c r="B31" s="1">
+      <c r="T49" t="s">
+        <v>32</v>
+      </c>
+      <c r="U49" t="s">
+        <v>33</v>
+      </c>
+      <c r="V49">
+        <v>121.7</v>
+      </c>
+      <c r="W49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50">
+        <v>274</v>
+      </c>
+      <c r="F50" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I50">
+        <v>0.35</v>
+      </c>
+      <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="K50" t="s">
+        <v>69</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>17052.2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>27</v>
+      </c>
+      <c r="O50">
+        <v>1484100</v>
+      </c>
+      <c r="P50" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>30</v>
+      </c>
+      <c r="R50" t="s">
+        <v>107</v>
+      </c>
+      <c r="T50" t="s">
+        <v>32</v>
+      </c>
+      <c r="U50" t="s">
+        <v>33</v>
+      </c>
+      <c r="V50">
+        <v>87.03</v>
+      </c>
+      <c r="W50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51">
+        <v>274</v>
+      </c>
+      <c r="F51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I51">
+        <v>0.2</v>
+      </c>
+      <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="K51" t="s">
+        <v>69</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>18679.5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>27</v>
+      </c>
+      <c r="O51">
+        <v>1028330</v>
+      </c>
+      <c r="P51" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>30</v>
+      </c>
+      <c r="R51" t="s">
+        <v>108</v>
+      </c>
+      <c r="T51" t="s">
+        <v>32</v>
+      </c>
+      <c r="U51" t="s">
+        <v>33</v>
+      </c>
+      <c r="V51">
+        <v>55.05</v>
+      </c>
+      <c r="W51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52">
+        <v>274</v>
+      </c>
+      <c r="F52" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I52">
+        <v>0.125</v>
+      </c>
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52" t="s">
+        <v>69</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>18802.2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>27</v>
+      </c>
+      <c r="O52">
+        <v>633660</v>
+      </c>
+      <c r="P52" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>30</v>
+      </c>
+      <c r="R52" t="s">
+        <v>109</v>
+      </c>
+      <c r="T52" t="s">
+        <v>32</v>
+      </c>
+      <c r="U52" t="s">
+        <v>33</v>
+      </c>
+      <c r="V52">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="W52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53">
+        <v>274</v>
+      </c>
+      <c r="F53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I53">
+        <v>0.08</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53" t="s">
+        <v>69</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>16103.5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O53">
+        <v>441977</v>
+      </c>
+      <c r="P53" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>30</v>
+      </c>
+      <c r="R53" t="s">
+        <v>110</v>
+      </c>
+      <c r="T53" t="s">
+        <v>32</v>
+      </c>
+      <c r="U53" t="s">
+        <v>33</v>
+      </c>
+      <c r="V53">
+        <v>27.45</v>
+      </c>
+      <c r="W53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54">
+        <v>274</v>
+      </c>
+      <c r="F54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I54">
+        <v>0.05</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+      <c r="K54" t="s">
+        <v>69</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>15461.9</v>
+      </c>
+      <c r="N54" t="s">
+        <v>27</v>
+      </c>
+      <c r="O54">
+        <v>311810</v>
+      </c>
+      <c r="P54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>30</v>
+      </c>
+      <c r="R54" t="s">
+        <v>111</v>
+      </c>
+      <c r="T54" t="s">
+        <v>32</v>
+      </c>
+      <c r="U54" t="s">
+        <v>33</v>
+      </c>
+      <c r="V54">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="W54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55">
+        <v>274</v>
+      </c>
+      <c r="F55" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I55">
+        <v>0.03</v>
+      </c>
+      <c r="J55">
+        <v>10</v>
+      </c>
+      <c r="K55" t="s">
+        <v>69</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>19828.900000000001</v>
+      </c>
+      <c r="N55" t="s">
+        <v>27</v>
+      </c>
+      <c r="O55">
+        <v>161750</v>
+      </c>
+      <c r="P55" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>30</v>
+      </c>
+      <c r="R55" t="s">
+        <v>112</v>
+      </c>
+      <c r="T55" t="s">
+        <v>32</v>
+      </c>
+      <c r="U55" t="s">
+        <v>33</v>
+      </c>
+      <c r="V55">
+        <v>8.157</v>
+      </c>
+      <c r="W55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56">
+        <v>274</v>
+      </c>
+      <c r="F56" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I56">
+        <v>0.02</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56" t="s">
+        <v>69</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>17204.400000000001</v>
+      </c>
+      <c r="N56" t="s">
+        <v>27</v>
+      </c>
+      <c r="O56">
+        <v>110956</v>
+      </c>
+      <c r="P56" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>30</v>
+      </c>
+      <c r="R56" t="s">
+        <v>113</v>
+      </c>
+      <c r="T56" t="s">
+        <v>32</v>
+      </c>
+      <c r="U56" t="s">
+        <v>33</v>
+      </c>
+      <c r="V56">
+        <v>6.4489999999999998</v>
+      </c>
+      <c r="W56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57">
+        <v>274</v>
+      </c>
+      <c r="F57" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I57">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J57">
+        <v>10</v>
+      </c>
+      <c r="K57" t="s">
+        <v>69</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>16953.8</v>
+      </c>
+      <c r="N57" t="s">
+        <v>27</v>
+      </c>
+      <c r="O57">
+        <v>72211.3</v>
+      </c>
+      <c r="P57" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>30</v>
+      </c>
+      <c r="R57" t="s">
+        <v>114</v>
+      </c>
+      <c r="T57" t="s">
+        <v>32</v>
+      </c>
+      <c r="U57" t="s">
+        <v>33</v>
+      </c>
+      <c r="V57">
+        <v>4.2590000000000003</v>
+      </c>
+      <c r="W57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58">
+        <v>274</v>
+      </c>
+      <c r="F58" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I58">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58" t="s">
+        <v>69</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>17296.599999999999</v>
+      </c>
+      <c r="N58" t="s">
+        <v>27</v>
+      </c>
+      <c r="O58">
+        <v>43227.1</v>
+      </c>
+      <c r="P58" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>30</v>
+      </c>
+      <c r="R58" t="s">
+        <v>115</v>
+      </c>
+      <c r="T58" t="s">
+        <v>32</v>
+      </c>
+      <c r="U58" t="s">
+        <v>33</v>
+      </c>
+      <c r="V58">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="W58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59">
+        <v>274</v>
+      </c>
+      <c r="F59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>10</v>
+      </c>
+      <c r="K59" t="s">
+        <v>69</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>15997.3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>27</v>
+      </c>
+      <c r="O59">
+        <v>20616900</v>
+      </c>
+      <c r="P59" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>30</v>
+      </c>
+      <c r="R59" t="s">
+        <v>116</v>
+      </c>
+      <c r="T59" t="s">
+        <v>32</v>
+      </c>
+      <c r="U59" t="s">
+        <v>33</v>
+      </c>
+      <c r="V59">
+        <v>1289</v>
+      </c>
+      <c r="W59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="1">
+        <v>44306</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60">
+        <v>274</v>
+      </c>
+      <c r="F60" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1">
+        <v>44306</v>
+      </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="K60" t="s">
+        <v>69</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>15532.5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>27</v>
+      </c>
+      <c r="O60">
+        <v>22408200</v>
+      </c>
+      <c r="P60" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>30</v>
+      </c>
+      <c r="R60" t="s">
+        <v>117</v>
+      </c>
+      <c r="T60" t="s">
+        <v>32</v>
+      </c>
+      <c r="U60" t="s">
+        <v>33</v>
+      </c>
+      <c r="V60">
+        <v>1443</v>
+      </c>
+      <c r="W60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="1">
         <v>44097</v>
       </c>
-      <c r="C31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31">
+      <c r="C61" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61">
         <v>959</v>
       </c>
-      <c r="F31" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31">
+      <c r="F61" t="s">
+        <v>121</v>
+      </c>
+      <c r="G61">
         <v>2</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H61" s="1">
         <v>44097</v>
       </c>
-      <c r="I31" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31">
-        <v>10</v>
-      </c>
-      <c r="K31" t="s">
-        <v>62</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
+      <c r="I61" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61">
+        <v>10</v>
+      </c>
+      <c r="K61" t="s">
+        <v>28</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>41455.800000000003</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>30</v>
+      </c>
+      <c r="R61" t="s">
+        <v>122</v>
+      </c>
+      <c r="S61" t="s">
+        <v>123</v>
+      </c>
+      <c r="T61" t="s">
+        <v>124</v>
+      </c>
+      <c r="U61" t="s">
+        <v>125</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="1">
+        <v>44097</v>
+      </c>
+      <c r="C62" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62">
+        <v>959</v>
+      </c>
+      <c r="F62" t="s">
+        <v>121</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62" s="1">
+        <v>44097</v>
+      </c>
+      <c r="I62" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62">
+        <v>10</v>
+      </c>
+      <c r="K62" t="s">
+        <v>28</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>34916.400000000001</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>30</v>
+      </c>
+      <c r="R62" t="s">
+        <v>127</v>
+      </c>
+      <c r="S62" t="s">
+        <v>128</v>
+      </c>
+      <c r="T62" t="s">
+        <v>124</v>
+      </c>
+      <c r="U62" t="s">
+        <v>125</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="1">
+        <v>44097</v>
+      </c>
+      <c r="C63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63">
+        <v>959</v>
+      </c>
+      <c r="F63" t="s">
+        <v>121</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>44097</v>
+      </c>
+      <c r="I63" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63">
+        <v>10</v>
+      </c>
+      <c r="K63" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
         <v>36203.5</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
         <v>0</v>
       </c>
-      <c r="P31" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>30</v>
-      </c>
-      <c r="R31" t="s">
-        <v>107</v>
-      </c>
-      <c r="S31" t="s">
-        <v>108</v>
-      </c>
-      <c r="T31" t="s">
-        <v>101</v>
-      </c>
-      <c r="U31" t="s">
-        <v>102</v>
-      </c>
-      <c r="V31">
+      <c r="P63" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>30</v>
+      </c>
+      <c r="R63" t="s">
+        <v>130</v>
+      </c>
+      <c r="S63" t="s">
+        <v>131</v>
+      </c>
+      <c r="T63" t="s">
+        <v>124</v>
+      </c>
+      <c r="U63" t="s">
+        <v>125</v>
+      </c>
+      <c r="V63">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>35</v>
+      <c r="W63" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>